--- a/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,79</t>
+          <t>-0,45; 3,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,97</t>
+          <t>-0,89; 2,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 13,37</t>
+          <t>-1,17; 9,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,88</t>
+          <t>-6,13; -1,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,8</t>
+          <t>-5,06; 0,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,67</t>
+          <t>0,79; 21,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,1</t>
+          <t>-2,33; 0,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,18</t>
+          <t>-2,22; 0,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,89</t>
+          <t>0,82; 11,95</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>175,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>193,87%</t>
+          <t>223,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>165,79%</t>
+          <t>-90,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>410,11%</t>
+          <t>-57,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>375,24%</t>
+          <t>241,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>-41,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>-31,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>249,01%</t>
+          <t>236,39%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 187,96</t>
+          <t>-80,68; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,31; 189,0</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 730,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; -20,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,61; —</t>
+          <t>-92,17; 33,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 891,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 211,24</t>
+          <t>-80,36; 65,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 291,35</t>
+          <t>-71,23; 79,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>45,19; 790,28</t>
+          <t>16,3; 881,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,47</t>
+          <t>-2,32; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,24</t>
+          <t>-2,31; 2,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,55</t>
+          <t>0,89; 13,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,34</t>
+          <t>-0,29; 2,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,31</t>
+          <t>0,81; 4,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 21,91</t>
+          <t>-0,58; 8,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,6</t>
+          <t>-0,85; 2,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,75</t>
+          <t>-0,35; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 11,95</t>
+          <t>1,06; 8,89</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>175,96%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>223,09%</t>
+          <t>193,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-90,16%</t>
+          <t>165,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-57,76%</t>
+          <t>410,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>241,38%</t>
+          <t>375,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-31,95%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>236,39%</t>
+          <t>249,01%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,68; —</t>
+          <t>-59,56; 187,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-61,31; 189,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 730,3</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -20,24</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-92,17; 33,38</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-20,24; 891,34</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-80,36; 65,85</t>
+          <t>-37,2; 211,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,23; 79,29</t>
+          <t>-19,8; 291,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,3; 881,99</t>
+          <t>45,19; 790,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,35</t>
+          <t>-4,36; 0,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,3</t>
+          <t>-4,39; 0,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 11,28</t>
+          <t>-2,45; 12,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,01</t>
+          <t>-3,93; 1,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,92</t>
+          <t>-3,67; 1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,05</t>
+          <t>-2,54; 9,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,88</t>
+          <t>-3,09; 0,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,02</t>
+          <t>-2,8; 0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,0</t>
+          <t>-2,08; 8,1</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>66,62%</t>
+          <t>-74,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,82%</t>
+          <t>-67,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>320,44%</t>
+          <t>75,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>-35,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>-21,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>-55,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-43,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>144,76%</t>
+          <t>58,37%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-81,79; 830,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,89; 414,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 450,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 317,69</t>
+          <t>-93,5; 99,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 161,21</t>
+          <t>-88,76; 176,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,75; 1148,07</t>
+          <t>-100,0; 907,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>4,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,47</t>
+          <t>1,37; 5,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,24</t>
+          <t>0,49; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 9,55</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; -1,34</t>
+          <t>-3,59; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,31</t>
+          <t>-3,61; 0,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 21,91</t>
+          <t>-0,07; 22,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,6</t>
+          <t>-0,47; 2,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,75</t>
+          <t>-1,27; 1,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 11,95</t>
+          <t>0,35; 11,54</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>175,96%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>223,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-90,16%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-57,76%</t>
+          <t>-49,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>241,38%</t>
+          <t>273,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,31%</t>
+          <t>58,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,95%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>236,39%</t>
+          <t>317,07%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-80,68; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -20,24</t>
+          <t>-90,62; 68,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,17; 33,38</t>
+          <t>-89,9; 84,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 891,34</t>
+          <t>-38,62; 1221,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,36; 65,85</t>
+          <t>-28,56; 313,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,23; 79,29</t>
+          <t>-63,23; 167,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 881,99</t>
+          <t>-11,17; 1260,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,79</t>
+          <t>-4,02; 2,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,97</t>
+          <t>-3,74; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 13,37</t>
+          <t>-0,82; 18,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,88</t>
+          <t>-4,64; 0,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,8</t>
+          <t>-2,45; 4,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,67</t>
+          <t>-2,16; 13,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,1</t>
+          <t>-3,35; 1,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,18</t>
+          <t>-1,96; 2,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,89</t>
+          <t>0,02; 12,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>-20,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>193,87%</t>
+          <t>210,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>165,79%</t>
+          <t>-54,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>410,11%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>375,24%</t>
+          <t>128,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>-35,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,66%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>249,01%</t>
+          <t>180,04%</t>
         </is>
       </c>
     </row>
@@ -1223,27 +1223,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,56; 187,96</t>
+          <t>-86,81; 239,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,31; 189,0</t>
+          <t>-80,45; 324,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,75; 730,3</t>
+          <t>-55,12; 1162,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 211,24</t>
+          <t>-84,07; 101,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 291,35</t>
+          <t>-52,54; 213,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>45,19; 790,28</t>
+          <t>-20,42; 853,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,54</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,88</t>
+          <t>-2,64; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,41</t>
+          <t>-3,18; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,78</t>
+          <t>-0,97; 13,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,38</t>
+          <t>-0,4; 3,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,51</t>
+          <t>0,09; 4,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 8,96</t>
+          <t>-0,4; 14,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,92</t>
+          <t>-1,11; 2,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,12</t>
+          <t>-0,72; 2,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,84</t>
+          <t>0,91; 10,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>256,69%</t>
+          <t>155,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,6%</t>
+          <t>251,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>447,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>221,23%</t>
+          <t>1071,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>50,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>237,96%</t>
+          <t>281,4%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 183,47</t>
+          <t>-67,2; 261,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 136,31</t>
+          <t>-75,55; 269,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,38; 649,64</t>
+          <t>-44,36; 861,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,9; 41,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 128,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,14; 621,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 73,0</t>
+          <t>-53,58; 249,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 90,92</t>
+          <t>-40,48; 337,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>88,21; 510,37</t>
+          <t>14,94; 1102,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,93</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,49</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 8,19</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 0,45</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 1,41</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 9,28</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 0,88</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 1,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>40,7%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>256,69%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>221,23%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>237,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-31,95; 198,16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-44,69; 153,33</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 737,05</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-70,66; 41,58</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-44,55; 122,91</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29,04; 702,54</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-39,73; 66,01</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 82,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>86,96; 473,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 0,39</t>
+          <t>-4,84; 0,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,69</t>
+          <t>-4,4; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 12,91</t>
+          <t>-2,56; 13,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,45</t>
+          <t>-3,62; 1,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,9</t>
+          <t>-3,56; 1,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 9,97</t>
+          <t>-2,53; 10,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,41</t>
+          <t>-2,89; 0,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 0,94</t>
+          <t>-2,69; 0,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 8,1</t>
+          <t>-1,93; 6,8</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-93,5; 99,83</t>
+          <t>-92,91; 59,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-88,76; 176,5</t>
+          <t>-87,54; 181,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 907,97</t>
+          <t>-100,0; 896,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,06</t>
+          <t>1,39; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,84</t>
+          <t>0,51; 3,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,44</t>
+          <t>0,0; 8,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 0,66</t>
+          <t>-3,64; 0,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,71</t>
+          <t>-3,47; 0,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 22,41</t>
+          <t>-0,27; 20,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,41</t>
+          <t>-0,59; 2,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,2</t>
+          <t>-1,2; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 11,54</t>
+          <t>0,41; 11,83</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-90,62; 68,79</t>
+          <t>-90,7; 58,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,9; 84,41</t>
+          <t>-88,67; 91,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 1221,59</t>
+          <t>-30,3; 1269,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 313,66</t>
+          <t>-40,3; 320,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 167,1</t>
+          <t>-62,75; 198,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 1260,65</t>
+          <t>4,23; 1540,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,67</t>
+          <t>-4,19; 2,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,03</t>
+          <t>-3,95; 2,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 18,28</t>
+          <t>-0,81; 18,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,98</t>
+          <t>-4,44; 1,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,22</t>
+          <t>-2,15; 4,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 13,01</t>
+          <t>-2,11; 12,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,12</t>
+          <t>-3,21; 1,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,71</t>
+          <t>-2,1; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 12,04</t>
+          <t>-0,18; 11,5</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,81; 239,96</t>
+          <t>-88,1; 336,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,45; 324,1</t>
+          <t>-79,12; 281,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 1162,03</t>
+          <t>-40,39; 1559,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,27 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-64,78; 642,38</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-84,07; 101,49</t>
+          <t>-81,2; 117,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 213,22</t>
+          <t>-53,73; 222,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 853,49</t>
+          <t>-17,52; 818,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,19</t>
+          <t>-2,93; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 3,08</t>
+          <t>-3,12; 3,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 13,16</t>
+          <t>-0,76; 12,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,44</t>
+          <t>-0,4; 3,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,27</t>
+          <t>0,07; 4,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 14,24</t>
+          <t>-0,4; 15,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,34</t>
+          <t>-1,08; 2,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,92</t>
+          <t>-0,88; 2,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,56</t>
+          <t>0,86; 10,21</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,2; 261,72</t>
+          <t>-70,2; 222,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 269,27</t>
+          <t>-79,73; 241,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 861,33</t>
+          <t>-42,86; 821,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 249,77</t>
+          <t>-50,89; 351,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 337,69</t>
+          <t>-45,4; 340,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,94; 1102,97</t>
+          <t>17,0; 1069,99</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,93</t>
+          <t>-0,69; 1,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,49</t>
+          <t>-1,13; 1,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,19</t>
+          <t>1,29; 8,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,45</t>
+          <t>-1,73; 0,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,41</t>
+          <t>-1,01; 1,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 9,28</t>
+          <t>0,66; 8,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,88</t>
+          <t>-0,81; 0,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,07</t>
+          <t>-0,6; 1,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,93</t>
+          <t>1,88; 7,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 198,16</t>
+          <t>-35,28; 162,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 153,33</t>
+          <t>-48,43; 125,59</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>47,73; 737,05</t>
+          <t>56,05; 750,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,66; 41,58</t>
+          <t>-70,15; 46,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 122,91</t>
+          <t>-43,02; 119,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,04; 702,54</t>
+          <t>26,07; 662,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 66,01</t>
+          <t>-40,27; 74,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 82,55</t>
+          <t>-29,51; 83,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>86,96; 473,39</t>
+          <t>90,66; 503,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A06-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,36</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-1,22</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,39</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,45</t>
+          <t>-3,7; 1,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,71</t>
+          <t>-3,22; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 13,86</t>
+          <t>-2,47; 11,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 1,45</t>
+          <t>-4,52; 0,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,86</t>
+          <t>-4,29; 0,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 10,69</t>
+          <t>-2,59; 14,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,35</t>
+          <t>-2,99; 0,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 0,82</t>
+          <t>-2,74; 0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 6,8</t>
+          <t>-1,74; 7,28</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-35,84%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-21,2%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39,07%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-74,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-67,31%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>75,96%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-35,84%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-21,2%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>57,91%</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-92,91; 59,93</t>
+          <t>-90,44; 86,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,54; 181,73</t>
+          <t>-89,41; 127,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 896,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,78</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,32</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,02</t>
+          <t>-3,39; 0,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,09</t>
+          <t>-3,41; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,59</t>
+          <t>-0,85; 21,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,45</t>
+          <t>1,28; 5,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,77</t>
+          <t>0,5; 2,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 20,17</t>
+          <t>0,0; 9,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,27</t>
+          <t>-0,56; 2,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,35</t>
+          <t>-1,18; 1,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 11,83</t>
+          <t>0,63; 12,23</t>
         </is>
       </c>
     </row>
@@ -954,34 +954,34 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-51,01%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-49,65%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>267,55%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-51,01%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-49,65%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>273,54%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
           <t>58,74%</t>
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>317,07%</t>
+          <t>308,01%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-90,4; 74,57</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-89,28; 96,85</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-49,44; 1242,66</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-90,7; 58,36</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-88,67; 91,4</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-30,3; 1269,42</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 320,83</t>
+          <t>-34,2; 303,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,75; 198,74</t>
+          <t>-63,91; 212,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 1540,13</t>
+          <t>-3,16; 1334,15</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,6</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,31</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>4,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,68</t>
+          <t>-4,4; 1,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,89</t>
+          <t>-2,24; 4,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 18,16</t>
+          <t>-2,43; 13,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,09</t>
+          <t>-4,12; 2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,01</t>
+          <t>-3,68; 2,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 12,83</t>
+          <t>-1,1; 17,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,21</t>
+          <t>-3,3; 1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,62</t>
+          <t>-1,94; 2,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 11,5</t>
+          <t>-0,26; 11,4</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-54,02%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54,63%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117,43%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-20,57%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-10,7%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>210,35%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-54,02%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>54,63%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>128,86%</t>
+          <t>202,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>180,04%</t>
+          <t>171,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,1; 336,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 281,72</t>
+          <t>-66,28; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 1559,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,73; 269,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,78; 642,38</t>
+          <t>-81,12; 262,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,67; 1366,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 117,03</t>
+          <t>-82,42; 123,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 222,72</t>
+          <t>-51,81; 245,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 818,43</t>
+          <t>-30,44; 729,33</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-0,1</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,2</t>
+          <t>-0,33; 3,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,14</t>
+          <t>0,06; 4,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,41</t>
+          <t>-0,4; 15,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 3,49</t>
+          <t>-2,7; 3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,02</t>
+          <t>-2,84; 3,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 15,06</t>
+          <t>-0,93; 12,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,49</t>
+          <t>-1,13; 2,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,91</t>
+          <t>-0,85; 2,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,21</t>
+          <t>0,67; 10,63</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>251,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>447,69%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1090,17%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>6,29%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-3,57%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>155,31%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>251,92%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>447,69%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1071,65%</t>
+          <t>150,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>281,4%</t>
+          <t>280,41%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,2; 222,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,73; 241,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 821,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,27; 249,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,15; 285,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,95; 831,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 351,15</t>
+          <t>-53,41; 247,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 340,48</t>
+          <t>-40,94; 348,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,0; 1069,99</t>
+          <t>17,13; 987,93</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,21</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,84</t>
+          <t>-1,76; 0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,34</t>
+          <t>-1,06; 1,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 8,47</t>
+          <t>0,5; 8,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,46</t>
+          <t>-0,63; 1,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,5</t>
+          <t>-0,85; 1,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,61</t>
+          <t>1,04; 7,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,95</t>
+          <t>-0,81; 0,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,08</t>
+          <t>-0,58; 1,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,06</t>
+          <t>1,74; 6,75</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-32,6%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>216,13%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>40,7%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>13,13%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>256,69%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-32,6%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>221,23%</t>
+          <t>250,94%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>237,96%</t>
+          <t>232,49%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 162,0</t>
+          <t>-73,9; 41,87</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,43; 125,59</t>
+          <t>-45,66; 128,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>56,05; 750,22</t>
+          <t>4,91; 630,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,15; 46,63</t>
+          <t>-33,93; 183,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,02; 119,57</t>
+          <t>-42,09; 136,31</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,07; 662,55</t>
+          <t>44,58; 635,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-40,27; 74,32</t>
+          <t>-36,63; 73,0</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 83,67</t>
+          <t>-27,53; 90,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90,66; 503,33</t>
+          <t>85,15; 501,0</t>
         </is>
       </c>
     </row>
